--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS OCTUBRE 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS OCTUBRE 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="117">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Diesel Comun Tipo III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no hay boleta</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-4654</t>
@@ -583,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="N:T"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,23 +675,18 @@
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="11" t="n">
-        <f aca="false">-H2</f>
-        <v>-49594000</v>
-      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>42648</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>14</v>
@@ -721,10 +713,10 @@
         <v>72400000</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
@@ -734,16 +726,16 @@
         <v>42648</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>4900</v>
@@ -762,10 +754,10 @@
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
@@ -775,16 +767,16 @@
         <v>42648</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>10000</v>
@@ -805,10 +797,10 @@
         <v>56305000</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
@@ -818,10 +810,10 @@
         <v>42648</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -848,10 +840,10 @@
         <v>86880000</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
@@ -861,10 +853,10 @@
         <v>42650</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
@@ -886,29 +878,24 @@
       <c r="K7" s="8"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="11" t="n">
-        <f aca="false">-H7</f>
-        <v>-14480000</v>
-      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>42650</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>11500</v>
@@ -924,23 +911,18 @@
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="11" t="n">
-        <f aca="false">-H8</f>
-        <v>-39675000</v>
-      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>42650</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -962,29 +944,24 @@
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="11" t="n">
-        <f aca="false">-H9</f>
-        <v>-36200000</v>
-      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>42650</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>20000</v>
@@ -1000,23 +977,18 @@
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="11" t="n">
-        <f aca="false">-H10</f>
-        <v>-69000000</v>
-      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>42650</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>14</v>
@@ -1038,29 +1010,24 @@
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="11" t="n">
-        <f aca="false">-H11</f>
-        <v>-72400000</v>
-      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>42650</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>5000</v>
@@ -1076,29 +1043,24 @@
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="11" t="n">
-        <f aca="false">-H12</f>
-        <v>-19700000</v>
-      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>42650</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>5000</v>
@@ -1114,23 +1076,18 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="11" t="n">
-        <f aca="false">-H13</f>
-        <v>-22600000</v>
-      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>42653</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1157,10 +1114,10 @@
         <v>49594000</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="11"/>
@@ -1170,10 +1127,10 @@
         <v>42653</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
@@ -1200,10 +1157,10 @@
         <v>19186000</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="11"/>
@@ -1213,16 +1170,16 @@
         <v>42653</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>10200</v>
@@ -1239,20 +1196,17 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="11" t="n">
-        <f aca="false">-H16</f>
-        <v>-35190000</v>
-      </c>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>42656</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>14</v>
@@ -1277,10 +1231,10 @@
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="11"/>
@@ -1290,16 +1244,16 @@
         <v>42656</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>20000</v>
@@ -1320,10 +1274,10 @@
         <v>105500000</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="11"/>
@@ -1333,10 +1287,10 @@
         <v>42656</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
@@ -1363,10 +1317,10 @@
         <v>14480000</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="11"/>
@@ -1376,10 +1330,10 @@
         <v>42656</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -1406,10 +1360,10 @@
         <v>18100000</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="11"/>
@@ -1419,16 +1373,16 @@
         <v>42656</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="n">
         <v>14900</v>
@@ -1447,10 +1401,10 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
@@ -1460,16 +1414,16 @@
         <v>42656</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7" t="n">
         <v>5000</v>
@@ -1490,10 +1444,10 @@
         <v>71105000</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="11"/>
@@ -1503,10 +1457,10 @@
         <v>42656</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -1533,10 +1487,10 @@
         <v>49594000</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="11"/>
@@ -1546,16 +1500,16 @@
         <v>42657</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>10000</v>
@@ -1574,10 +1528,10 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="11"/>
@@ -1587,16 +1541,16 @@
         <v>42657</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="7" t="n">
         <v>5000</v>
@@ -1617,10 +1571,10 @@
         <v>54200000</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="11"/>
@@ -1630,10 +1584,10 @@
         <v>42657</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
@@ -1656,20 +1610,17 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="11" t="n">
-        <f aca="false">-H26</f>
-        <v>-54300000</v>
-      </c>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>42660</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
@@ -1692,20 +1643,17 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="11" t="n">
-        <f aca="false">-H27</f>
-        <v>-49594000</v>
-      </c>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>42660</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
@@ -1728,26 +1676,23 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="11" t="n">
-        <f aca="false">-H28</f>
-        <v>-90138000</v>
-      </c>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>42660</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="7" t="n">
         <v>10000</v>
@@ -1764,20 +1709,17 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="11" t="n">
-        <f aca="false">-H29</f>
-        <v>-34500000</v>
-      </c>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>42660</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
@@ -1800,20 +1742,17 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
-      <c r="O30" s="11" t="n">
-        <f aca="false">-H30</f>
-        <v>-18100000</v>
-      </c>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>42661</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
@@ -1838,10 +1777,10 @@
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="11"/>
@@ -1851,10 +1790,10 @@
         <v>42661</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>14</v>
@@ -1879,10 +1818,10 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="11"/>
@@ -1892,10 +1831,10 @@
         <v>42661</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>14</v>
@@ -1922,10 +1861,10 @@
         <v>142990000</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="11"/>
@@ -1935,16 +1874,16 @@
         <v>42661</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>15000</v>
@@ -1963,10 +1902,10 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="11"/>
@@ -1976,16 +1915,16 @@
         <v>42661</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7" t="n">
         <v>5000</v>
@@ -2006,10 +1945,10 @@
         <v>71450000</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="11"/>
@@ -2019,16 +1958,16 @@
         <v>42663</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7" t="n">
         <v>5000</v>
@@ -2047,10 +1986,10 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="11"/>
@@ -2060,16 +1999,16 @@
         <v>42663</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="7" t="n">
         <v>5000</v>
@@ -2090,10 +2029,10 @@
         <v>36950000</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="11"/>
@@ -2103,10 +2042,10 @@
         <v>42664</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>14</v>
@@ -2128,23 +2067,18 @@
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O38" s="11" t="n">
-        <f aca="false">-H38</f>
-        <v>-19910000</v>
-      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>42667</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>14</v>
@@ -2171,10 +2105,10 @@
         <v>56110000</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="11"/>
@@ -2184,10 +2118,10 @@
         <v>42664</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>14</v>
@@ -2209,29 +2143,24 @@
       <c r="K40" s="8"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="11" t="n">
-        <f aca="false">-H40</f>
-        <v>-36924000</v>
-      </c>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>42664</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="D41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="7" t="n">
         <v>5300</v>
@@ -2252,10 +2181,10 @@
         <v>18285000</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="11"/>
@@ -2265,10 +2194,10 @@
         <v>42664</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -2295,10 +2224,10 @@
         <v>86880000</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="11"/>
@@ -2308,10 +2237,10 @@
         <v>42667</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>14</v>
@@ -2333,23 +2262,18 @@
       <c r="K43" s="8"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O43" s="11" t="n">
-        <f aca="false">-H43</f>
-        <v>-36200000</v>
-      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>42667</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
@@ -2371,29 +2295,24 @@
       <c r="K44" s="8"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="11" t="n">
-        <f aca="false">-H44</f>
-        <v>-36924000</v>
-      </c>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>42667</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D45" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="7" t="n">
         <v>5300</v>
@@ -2409,23 +2328,18 @@
       <c r="K45" s="8"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="11" t="n">
-        <f aca="false">-H45</f>
-        <v>-20882000</v>
-      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>42668</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>14</v>
@@ -2447,29 +2361,24 @@
       <c r="K46" s="8"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O46" s="11" t="n">
-        <f aca="false">-H46</f>
-        <v>-19910000</v>
-      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>42669</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="7" t="n">
         <v>10000</v>
@@ -2488,10 +2397,10 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="11"/>
@@ -2501,16 +2410,16 @@
         <v>42669</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="7" t="n">
         <v>5000</v>
@@ -2531,10 +2440,10 @@
         <v>56650000</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="11"/>
@@ -2544,10 +2453,10 @@
         <v>42669</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>14</v>
@@ -2569,29 +2478,24 @@
       <c r="K49" s="8"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O49" s="11" t="n">
-        <f aca="false">-H49</f>
-        <v>-26064000</v>
-      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>42669</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="7" t="n">
         <v>5100</v>
@@ -2610,10 +2514,10 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="11"/>
@@ -2623,16 +2527,16 @@
         <v>42669</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D51" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51" s="7" t="n">
         <v>11700</v>
@@ -2653,10 +2557,10 @@
         <v>63693000</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="11"/>
@@ -2666,10 +2570,10 @@
         <v>42670</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>14</v>
@@ -2692,26 +2596,23 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="11" t="n">
-        <f aca="false">-H52</f>
-        <v>-14480000</v>
-      </c>
+      <c r="O52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>42670</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="D53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="7" t="n">
         <v>11500</v>
@@ -2732,10 +2633,10 @@
         <v>39675000</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="14"/>
@@ -2745,10 +2646,10 @@
         <v>42670</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>14</v>
@@ -2775,10 +2676,10 @@
         <v>72400000</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="14"/>
@@ -2788,10 +2689,10 @@
         <v>42671</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>14</v>
@@ -2818,10 +2719,10 @@
         <v>49594000</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="14"/>
@@ -2831,10 +2732,10 @@
         <v>42671</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>14</v>
@@ -2861,10 +2762,10 @@
         <v>54300000</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="14"/>
@@ -2874,16 +2775,16 @@
         <v>42671</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="D57" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" s="7" t="n">
         <v>15000</v>
@@ -2904,10 +2805,10 @@
         <v>51750000</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="14"/>
@@ -2917,10 +2818,10 @@
         <v>42671</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -2947,10 +2848,10 @@
         <v>52852000</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="14"/>
@@ -2960,16 +2861,16 @@
         <v>42671</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D59" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" s="7" t="n">
         <v>15300</v>
@@ -2990,10 +2891,10 @@
         <v>52785000</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="14"/>
@@ -3003,10 +2904,10 @@
         <v>42674</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>14</v>
@@ -3033,10 +2934,10 @@
         <v>86880000</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="14"/>
@@ -3071,16 +2972,8 @@
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
-      <c r="O64" s="18" t="n">
-        <f aca="false">SUM(O2:O60)</f>
-        <v>-816765000</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O64" s="18"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
